--- a/biology/Botanique/Pierre_Rebut/Pierre_Rebut.xlsx
+++ b/biology/Botanique/Pierre_Rebut/Pierre_Rebut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Rebut, né le 26 mai 1827, à Saint-Jean-des-Vignes, et mort le 14 mars 1902 à Chazay-d'Azergues[1], était un botaniste français, spécialiste des cactus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Rebut, né le 26 mai 1827, à Saint-Jean-des-Vignes, et mort le 14 mars 1902 à Chazay-d'Azergues, était un botaniste français, spécialiste des cactus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Vie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Rebut était un vigneron, et horticulteur, devenu un expert dans l'élevage et la reproduction de cactus. Il avait sa pépinière de cactus à Chazay-d'Azergues, près de Lyon.
 Il est né le 26 mai 1827 à Saint-Jean-des-Vignes, Rhône, et il est décédé le 14 mars 1902 à Chazay-d'Azergues, Rhône. 
@@ -544,9 +558,11 @@
           <t>Plantes nommées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des plantes décrites par Rebut[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des plantes décrites par Rebut :
 Cereus jusbertii Rebut ex K.Schum., Gesamtbeschr. Kakt. 137 (1897).
 Echinocactus jourdanianus Rebut ex W.Maass
 Echinocactus macdowellii Rebut ex Quehl, Monatsschr. Kakteenk. 4(9): 133 (-134) (1894).
@@ -587,14 +603,16 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Karl Moritz Schumann l'honore dans le genre Rebutia K.Schum. de la famille des Cactaceae[4] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Karl Moritz Schumann l'honore dans le genre Rebutia K.Schum. de la famille des Cactaceae .
 D'autre part, les épithètes spécifiques suivants sont assignés en son honneur :
-(Asphodelaceae) Aloe rebutii Hort. ex A.Berger[5]
+(Asphodelaceae) Aloe rebutii Hort. ex A.Berger
 (Asphodelaceae) × Gasteraloe rebutii (= Aloe variegata × Gasteria sp.)
-Lobivia rebutioides Backeb.[6] (synonyme d'Echinopsis densispina)
-Hymenorebutia rebutioides (Backeb. ) Buining[7]</t>
+Lobivia rebutioides Backeb. (synonyme d'Echinopsis densispina)
+Hymenorebutia rebutioides (Backeb. ) Buining</t>
         </is>
       </c>
     </row>
